--- a/EJ2/Mediciones/Mediciones tp2 ej2 Zin NE5534.xlsx
+++ b/EJ2/Mediciones/Mediciones tp2 ej2 Zin NE5534.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Desktop\ITBA\5C TC\TP2\TP2\EJ2\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2974A42B-1F52-4E83-A50E-37B77F37F2CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D47FA72-53D7-44D4-8FD5-BF72E715B388}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{725EB9F4-FAC7-4A66-873D-D6BC0385B064}"/>
   </bookViews>
@@ -883,62 +883,65 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$116</c:f>
+              <c:f>Sheet1!$A$2:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
@@ -946,59 +949,62 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$116</c:f>
+              <c:f>Sheet1!$G$2:$G$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="114"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>-4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>-11</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-23</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-31</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>-37</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>-41</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>-45</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>-50</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-55</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-62</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>-64</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>-69</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>-76</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>-80</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>-81</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>-84</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>-85</c:v>
                 </c:pt>
               </c:numCache>
@@ -2688,7 +2694,7 @@
   <dimension ref="A1:AB107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AA20:AB20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3350,7 +3356,7 @@
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E35" t="e">
-        <f t="shared" ref="E35:E66" si="5">((B35-C35)/1000)/D35</f>
+        <f t="shared" ref="E35:E61" si="5">((B35-C35)/1000)/D35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F35" t="e">

--- a/EJ2/Mediciones/Mediciones tp2 ej2 Zin NE5534.xlsx
+++ b/EJ2/Mediciones/Mediciones tp2 ej2 Zin NE5534.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Desktop\ITBA\5C TC\TP2\TP2\EJ2\Mediciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D47FA72-53D7-44D4-8FD5-BF72E715B388}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BF954D-5131-48C6-8F1F-6DE542F9A176}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{725EB9F4-FAC7-4A66-873D-D6BC0385B064}"/>
   </bookViews>
@@ -50,13 +50,13 @@
     <t>Zin (Ohm)</t>
   </si>
   <si>
-    <t>Frec (KHz)</t>
-  </si>
-  <si>
     <t>Vpp serie (mV)</t>
   </si>
   <si>
     <t xml:space="preserve"> ,mnbvcx</t>
+  </si>
+  <si>
+    <t>Frec (Hz)</t>
   </si>
 </sst>
 </file>
@@ -214,61 +214,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>19000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23</c:v>
+                  <c:v>23000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95</c:v>
+                  <c:v>95000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>120</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>200</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>500</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,61 +888,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="115"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>19000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23</c:v>
+                  <c:v>23000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95</c:v>
+                  <c:v>95000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>120</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>200</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>500</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2694,7 +2694,7 @@
   <dimension ref="A1:AB107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A24" sqref="A24:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2709,13 +2709,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -2832,7 +2832,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9</v>
+        <v>9000</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>11</v>
+        <v>11000</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>13</v>
+        <v>13000</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>16</v>
+        <v>16000</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>19</v>
+        <v>19000</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>23</v>
+        <v>23000</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>45</v>
+        <v>45000</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>80</v>
+        <v>80000</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>95</v>
+        <v>95000</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>120</v>
+        <v>120000</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="B19">
         <v>100</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>500</v>
+        <v>500000</v>
       </c>
       <c r="B20">
         <v>100</v>
@@ -3199,7 +3199,7 @@
         <v>100000.00000000001</v>
       </c>
       <c r="AB20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
